--- a/Proyecto_DMD/Excel/Excel_ordenados/excel_1998.xlsx
+++ b/Proyecto_DMD/Excel/Excel_ordenados/excel_1998.xlsx
@@ -955,7 +955,7 @@
       </c>
       <c r="D22" s="0" t="inlineStr">
         <is>
-          <t>367.20999999999998</t>
+          <t>367.21</t>
         </is>
       </c>
       <c r="E22" s="0" t="inlineStr">
@@ -1252,7 +1252,7 @@
       </c>
       <c r="D33" s="0" t="inlineStr">
         <is>
-          <t>16.870000000000001</t>
+          <t>16.87</t>
         </is>
       </c>
       <c r="E33" s="0" t="inlineStr">
@@ -1306,7 +1306,7 @@
       </c>
       <c r="D35" s="0" t="inlineStr">
         <is>
-          <t>2538.5999999999999</t>
+          <t>2538.6</t>
         </is>
       </c>
       <c r="E35" s="0" t="inlineStr">
@@ -1414,7 +1414,7 @@
       </c>
       <c r="D39" s="0" t="inlineStr">
         <is>
-          <t>63.399999999999999</t>
+          <t>63.4</t>
         </is>
       </c>
       <c r="E39" s="0" t="inlineStr">
@@ -1441,7 +1441,7 @@
       </c>
       <c r="D40" s="0" t="inlineStr">
         <is>
-          <t>370.76999999999998</t>
+          <t>370.77</t>
         </is>
       </c>
       <c r="E40" s="0" t="inlineStr">
@@ -1468,7 +1468,7 @@
       </c>
       <c r="D41" s="0" t="inlineStr">
         <is>
-          <t>48.520000000000003</t>
+          <t>48.52</t>
         </is>
       </c>
       <c r="E41" s="0" t="inlineStr">
@@ -1549,7 +1549,7 @@
       </c>
       <c r="D44" s="0" t="inlineStr">
         <is>
-          <t>825.71000000000004</t>
+          <t>825.71</t>
         </is>
       </c>
       <c r="E44" s="0" t="inlineStr">
@@ -1630,7 +1630,7 @@
       </c>
       <c r="D47" s="0" t="inlineStr">
         <is>
-          <t>309.04000000000002</t>
+          <t>309.04</t>
         </is>
       </c>
       <c r="E47" s="0" t="inlineStr">
@@ -1657,7 +1657,7 @@
       </c>
       <c r="D48" s="0" t="inlineStr">
         <is>
-          <t>38.479999999999997</t>
+          <t>38.48</t>
         </is>
       </c>
       <c r="E48" s="0" t="inlineStr">
@@ -1765,7 +1765,7 @@
       </c>
       <c r="D52" s="0" t="inlineStr">
         <is>
-          <t>312.02999999999997</t>
+          <t>312.03</t>
         </is>
       </c>
       <c r="E52" s="0" t="inlineStr">
@@ -2008,7 +2008,7 @@
       </c>
       <c r="D61" s="0" t="inlineStr">
         <is>
-          <t>8596.0300000000007</t>
+          <t>8596.03</t>
         </is>
       </c>
       <c r="E61" s="0" t="inlineStr">
@@ -2143,7 +2143,7 @@
       </c>
       <c r="D66" s="0" t="inlineStr">
         <is>
-          <t>17.969999999999999</t>
+          <t>17.97</t>
         </is>
       </c>
       <c r="E66" s="0" t="inlineStr">
@@ -2386,7 +2386,7 @@
       </c>
       <c r="D75" s="0" t="inlineStr">
         <is>
-          <t>198.36000000000001</t>
+          <t>198.36</t>
         </is>
       </c>
       <c r="E75" s="0" t="inlineStr">
@@ -2413,7 +2413,7 @@
       </c>
       <c r="D76" s="0" t="inlineStr">
         <is>
-          <t>12984.129999999999</t>
+          <t>12984.13</t>
         </is>
       </c>
       <c r="E76" s="0" t="inlineStr">
@@ -2440,7 +2440,7 @@
       </c>
       <c r="D77" s="0" t="inlineStr">
         <is>
-          <t>27113.990000000002</t>
+          <t>27113.99</t>
         </is>
       </c>
       <c r="E77" s="0" t="inlineStr">
@@ -2521,7 +2521,7 @@
       </c>
       <c r="D80" s="0" t="inlineStr">
         <is>
-          <t>6252.6999999999998</t>
+          <t>6252.7</t>
         </is>
       </c>
       <c r="E80" s="0" t="inlineStr">
@@ -2548,7 +2548,7 @@
       </c>
       <c r="D81" s="0" t="inlineStr">
         <is>
-          <t>3723.6999999999998</t>
+          <t>3723.7</t>
         </is>
       </c>
       <c r="E81" s="0" t="inlineStr">
@@ -2575,7 +2575,7 @@
       </c>
       <c r="D82" s="0" t="inlineStr">
         <is>
-          <t>258.41000000000003</t>
+          <t>258.41</t>
         </is>
       </c>
       <c r="E82" s="0" t="inlineStr">
@@ -2602,7 +2602,7 @@
       </c>
       <c r="D83" s="0" t="inlineStr">
         <is>
-          <t>294596.95000000001</t>
+          <t>294596.95</t>
         </is>
       </c>
       <c r="E83" s="0" t="inlineStr">
@@ -2737,7 +2737,7 @@
       </c>
       <c r="D88" s="0" t="inlineStr">
         <is>
-          <t>256308.20999999999</t>
+          <t>256308.21</t>
         </is>
       </c>
       <c r="E88" s="0" t="inlineStr">
@@ -2818,7 +2818,7 @@
       </c>
       <c r="D91" s="0" t="inlineStr">
         <is>
-          <t>1541.4400000000001</t>
+          <t>1541.44</t>
         </is>
       </c>
       <c r="E91" s="0" t="inlineStr">
@@ -2845,7 +2845,7 @@
       </c>
       <c r="D92" s="0" t="inlineStr">
         <is>
-          <t>4976.6400000000003</t>
+          <t>4976.64</t>
         </is>
       </c>
       <c r="E92" s="0" t="inlineStr">
@@ -3142,7 +3142,7 @@
       </c>
       <c r="D103" s="0" t="inlineStr">
         <is>
-          <t>4571.5699999999997</t>
+          <t>4571.57</t>
         </is>
       </c>
       <c r="E103" s="0" t="inlineStr">
@@ -3358,7 +3358,7 @@
       </c>
       <c r="D111" s="0" t="inlineStr">
         <is>
-          <t>195.66999999999999</t>
+          <t>195.67</t>
         </is>
       </c>
       <c r="E111" s="0" t="inlineStr">
@@ -3385,7 +3385,7 @@
       </c>
       <c r="D112" s="0" t="inlineStr">
         <is>
-          <t>469202.23999999999</t>
+          <t>469202.24</t>
         </is>
       </c>
       <c r="E112" s="0" t="inlineStr">
@@ -3439,7 +3439,7 @@
       </c>
       <c r="D114" s="0" t="inlineStr">
         <is>
-          <t>672728.91000000003</t>
+          <t>672728.91</t>
         </is>
       </c>
       <c r="E114" s="0" t="inlineStr">
@@ -3466,7 +3466,7 @@
       </c>
       <c r="D115" s="0" t="inlineStr">
         <is>
-          <t>15478.200000000001</t>
+          <t>15478.2</t>
         </is>
       </c>
       <c r="E115" s="0" t="inlineStr">
@@ -3817,7 +3817,7 @@
       </c>
       <c r="D128" s="0" t="inlineStr">
         <is>
-          <t>5306.0799999999999</t>
+          <t>5306.08</t>
         </is>
       </c>
       <c r="E128" s="0" t="inlineStr">
@@ -3898,7 +3898,7 @@
       </c>
       <c r="D131" s="0" t="inlineStr">
         <is>
-          <t>1109.1300000000001</t>
+          <t>1109.13</t>
         </is>
       </c>
       <c r="E131" s="0" t="inlineStr">
@@ -3952,7 +3952,7 @@
       </c>
       <c r="D133" s="0" t="inlineStr">
         <is>
-          <t>8892.8199999999997</t>
+          <t>8892.82</t>
         </is>
       </c>
       <c r="E133" s="0" t="inlineStr">
@@ -4114,7 +4114,7 @@
       </c>
       <c r="D139" s="0" t="inlineStr">
         <is>
-          <t>339.39999999999998</t>
+          <t>339.4</t>
         </is>
       </c>
       <c r="E139" s="0" t="inlineStr">
@@ -4141,7 +4141,7 @@
       </c>
       <c r="D140" s="0" t="inlineStr">
         <is>
-          <t>189393.01000000001</t>
+          <t>189393.01</t>
         </is>
       </c>
       <c r="E140" s="0" t="inlineStr">
@@ -4249,7 +4249,7 @@
       </c>
       <c r="D144" s="0" t="inlineStr">
         <is>
-          <t>350.04000000000002</t>
+          <t>350.04</t>
         </is>
       </c>
       <c r="E144" s="0" t="inlineStr">
@@ -4465,7 +4465,7 @@
       </c>
       <c r="D152" s="0" t="inlineStr">
         <is>
-          <t>530.79999999999995</t>
+          <t>530.8</t>
         </is>
       </c>
       <c r="E152" s="0" t="inlineStr">
@@ -4546,7 +4546,7 @@
       </c>
       <c r="D155" s="0" t="inlineStr">
         <is>
-          <t>642692.18000000005</t>
+          <t>642692.18</t>
         </is>
       </c>
       <c r="E155" s="0" t="inlineStr">
@@ -4573,7 +4573,7 @@
       </c>
       <c r="D156" s="0" t="inlineStr">
         <is>
-          <t>95109.240000000005</t>
+          <t>95109.24</t>
         </is>
       </c>
       <c r="E156" s="0" t="inlineStr">
@@ -4600,7 +4600,7 @@
       </c>
       <c r="D157" s="0" t="inlineStr">
         <is>
-          <t>5124.2399999999998</t>
+          <t>5124.24</t>
         </is>
       </c>
       <c r="E157" s="0" t="inlineStr">
@@ -4627,7 +4627,7 @@
       </c>
       <c r="D158" s="0" t="inlineStr">
         <is>
-          <t>43944.910000000003</t>
+          <t>43944.91</t>
         </is>
       </c>
       <c r="E158" s="0" t="inlineStr">
@@ -4735,7 +4735,7 @@
       </c>
       <c r="D162" s="0" t="inlineStr">
         <is>
-          <t>34041.790000000001</t>
+          <t>34041.79</t>
         </is>
       </c>
       <c r="E162" s="0" t="inlineStr">
@@ -4789,7 +4789,7 @@
       </c>
       <c r="D164" s="0" t="inlineStr">
         <is>
-          <t>9863.6000000000004</t>
+          <t>9863.6</t>
         </is>
       </c>
       <c r="E164" s="0" t="inlineStr">
@@ -4843,7 +4843,7 @@
       </c>
       <c r="D166" s="0" t="inlineStr">
         <is>
-          <t>16811.130000000001</t>
+          <t>16811.13</t>
         </is>
       </c>
       <c r="E166" s="0" t="inlineStr">
@@ -4870,7 +4870,7 @@
       </c>
       <c r="D167" s="0" t="inlineStr">
         <is>
-          <t>632.86000000000001</t>
+          <t>632.86</t>
         </is>
       </c>
       <c r="E167" s="0" t="inlineStr">
@@ -4978,7 +4978,7 @@
       </c>
       <c r="D171" s="0" t="inlineStr">
         <is>
-          <t>4947.9200000000001</t>
+          <t>4947.92</t>
         </is>
       </c>
       <c r="E171" s="0" t="inlineStr">
@@ -5032,7 +5032,7 @@
       </c>
       <c r="D173" s="0" t="inlineStr">
         <is>
-          <t>5312.0799999999999</t>
+          <t>5312.08</t>
         </is>
       </c>
       <c r="E173" s="0" t="inlineStr">
@@ -5059,7 +5059,7 @@
       </c>
       <c r="D174" s="0" t="inlineStr">
         <is>
-          <t>797.17999999999995</t>
+          <t>797.18</t>
         </is>
       </c>
       <c r="E174" s="0" t="inlineStr">
@@ -5086,7 +5086,7 @@
       </c>
       <c r="D175" s="0" t="inlineStr">
         <is>
-          <t>1995.4000000000001</t>
+          <t>1995.4</t>
         </is>
       </c>
       <c r="E175" s="0" t="inlineStr">
@@ -5113,7 +5113,7 @@
       </c>
       <c r="D176" s="0" t="inlineStr">
         <is>
-          <t>3937.5700000000002</t>
+          <t>3937.57</t>
         </is>
       </c>
       <c r="E176" s="0" t="inlineStr">
@@ -5194,7 +5194,7 @@
       </c>
       <c r="D179" s="0" t="inlineStr">
         <is>
-          <t>2306.7600000000002</t>
+          <t>2306.76</t>
         </is>
       </c>
       <c r="E179" s="0" t="inlineStr">
@@ -5221,7 +5221,7 @@
       </c>
       <c r="D180" s="0" t="inlineStr">
         <is>
-          <t>2466.5300000000002</t>
+          <t>2466.53</t>
         </is>
       </c>
       <c r="E180" s="0" t="inlineStr">
@@ -5437,7 +5437,7 @@
       </c>
       <c r="D188" s="0" t="inlineStr">
         <is>
-          <t>388.05000000000001</t>
+          <t>388.05</t>
         </is>
       </c>
       <c r="E188" s="0" t="inlineStr">
@@ -5518,7 +5518,7 @@
       </c>
       <c r="D191" s="0" t="inlineStr">
         <is>
-          <t>48701.389999999999</t>
+          <t>48701.39</t>
         </is>
       </c>
       <c r="E191" s="0" t="inlineStr">
@@ -5626,7 +5626,7 @@
       </c>
       <c r="D195" s="0" t="inlineStr">
         <is>
-          <t>879.15999999999997</t>
+          <t>879.16</t>
         </is>
       </c>
       <c r="E195" s="0" t="inlineStr">
@@ -5761,7 +5761,7 @@
       </c>
       <c r="D200" s="0" t="inlineStr">
         <is>
-          <t>1996.3599999999999</t>
+          <t>1996.36</t>
         </is>
       </c>
       <c r="E200" s="0" t="inlineStr">
@@ -5788,7 +5788,7 @@
       </c>
       <c r="D201" s="0" t="inlineStr">
         <is>
-          <t>1146.1099999999999</t>
+          <t>1146.11</t>
         </is>
       </c>
       <c r="E201" s="0" t="inlineStr">
@@ -5977,7 +5977,7 @@
       </c>
       <c r="D208" s="0" t="inlineStr">
         <is>
-          <t>1364.0599999999999</t>
+          <t>1364.06</t>
         </is>
       </c>
       <c r="E208" s="0" t="inlineStr">
@@ -6031,7 +6031,7 @@
       </c>
       <c r="D210" s="0" t="inlineStr">
         <is>
-          <t>85.890000000000001</t>
+          <t>85.89</t>
         </is>
       </c>
       <c r="E210" s="0" t="inlineStr">
@@ -6544,7 +6544,7 @@
       </c>
       <c r="D229" s="0" t="inlineStr">
         <is>
-          <t>25378.439999999999</t>
+          <t>25378.44</t>
         </is>
       </c>
       <c r="E229" s="0" t="inlineStr">
@@ -6706,7 +6706,7 @@
       </c>
       <c r="D235" s="0" t="inlineStr">
         <is>
-          <t>435347.77000000002</t>
+          <t>435347.77</t>
         </is>
       </c>
       <c r="E235" s="0" t="inlineStr">
@@ -6760,7 +6760,7 @@
       </c>
       <c r="D237" s="0" t="inlineStr">
         <is>
-          <t>56428.730000000003</t>
+          <t>56428.73</t>
         </is>
       </c>
       <c r="E237" s="0" t="inlineStr">
@@ -6949,7 +6949,7 @@
       </c>
       <c r="D244" s="0" t="inlineStr">
         <is>
-          <t>1757.5999999999999</t>
+          <t>1757.6</t>
         </is>
       </c>
       <c r="E244" s="0" t="inlineStr">
@@ -7273,7 +7273,7 @@
       </c>
       <c r="D256" s="0" t="inlineStr">
         <is>
-          <t>995.97000000000003</t>
+          <t>995.97</t>
         </is>
       </c>
       <c r="E256" s="0" t="inlineStr">
@@ -8056,7 +8056,7 @@
       </c>
       <c r="D285" s="0" t="inlineStr">
         <is>
-          <t>2866.5500000000002</t>
+          <t>2866.55</t>
         </is>
       </c>
       <c r="E285" s="0" t="inlineStr">
@@ -8083,7 +8083,7 @@
       </c>
       <c r="D286" s="0" t="inlineStr">
         <is>
-          <t>21519.360000000001</t>
+          <t>21519.36</t>
         </is>
       </c>
       <c r="E286" s="0" t="inlineStr">
@@ -8137,7 +8137,7 @@
       </c>
       <c r="D288" s="0" t="inlineStr">
         <is>
-          <t>4909310.5499999998</t>
+          <t>4909310.55</t>
         </is>
       </c>
       <c r="E288" s="0" t="inlineStr">
@@ -8218,7 +8218,7 @@
       </c>
       <c r="D291" s="0" t="inlineStr">
         <is>
-          <t>163.74000000000001</t>
+          <t>163.74</t>
         </is>
       </c>
       <c r="E291" s="0" t="inlineStr">
@@ -8380,7 +8380,7 @@
       </c>
       <c r="D297" s="0" t="inlineStr">
         <is>
-          <t>285755.02000000002</t>
+          <t>285755.02</t>
         </is>
       </c>
       <c r="E297" s="0" t="inlineStr">
@@ -8839,7 +8839,7 @@
       </c>
       <c r="D314" s="0" t="inlineStr">
         <is>
-          <t>3948.1900000000001</t>
+          <t>3948.19</t>
         </is>
       </c>
       <c r="E314" s="0" t="inlineStr">
@@ -9217,7 +9217,7 @@
       </c>
       <c r="D328" s="0" t="inlineStr">
         <is>
-          <t>824.44000000000005</t>
+          <t>824.44</t>
         </is>
       </c>
       <c r="E328" s="0" t="inlineStr">
@@ -10162,7 +10162,7 @@
       </c>
       <c r="D363" s="0" t="inlineStr">
         <is>
-          <t>35695.290000000001</t>
+          <t>35695.29</t>
         </is>
       </c>
       <c r="E363" s="0" t="inlineStr">
@@ -10351,7 +10351,7 @@
       </c>
       <c r="D370" s="0" t="inlineStr">
         <is>
-          <t>4104.5200000000004</t>
+          <t>4104.52</t>
         </is>
       </c>
       <c r="E370" s="0" t="inlineStr">
@@ -10432,7 +10432,7 @@
       </c>
       <c r="D373" s="0" t="inlineStr">
         <is>
-          <t>6868.8199999999997</t>
+          <t>6868.82</t>
         </is>
       </c>
       <c r="E373" s="0" t="inlineStr">
@@ -13078,7 +13078,7 @@
       </c>
       <c r="D471" s="0" t="inlineStr">
         <is>
-          <t>579.85000000000002</t>
+          <t>579.85</t>
         </is>
       </c>
       <c r="E471" s="0" t="inlineStr">
@@ -13780,7 +13780,7 @@
       </c>
       <c r="D497" s="0" t="inlineStr">
         <is>
-          <t>468.27999999999997</t>
+          <t>468.28</t>
         </is>
       </c>
       <c r="E497" s="0" t="inlineStr">
@@ -14023,7 +14023,7 @@
       </c>
       <c r="D506" s="0" t="inlineStr">
         <is>
-          <t>47038.330000000002</t>
+          <t>47038.33</t>
         </is>
       </c>
       <c r="E506" s="0" t="inlineStr">
@@ -15616,7 +15616,7 @@
       </c>
       <c r="D565" s="0" t="inlineStr">
         <is>
-          <t>35.399999999999999</t>
+          <t>35.4</t>
         </is>
       </c>
       <c r="E565" s="0" t="inlineStr">
@@ -16264,7 +16264,7 @@
       </c>
       <c r="D589" s="0" t="inlineStr">
         <is>
-          <t>3004.9099999999999</t>
+          <t>3004.91</t>
         </is>
       </c>
       <c r="E589" s="0" t="inlineStr">
@@ -16291,7 +16291,7 @@
       </c>
       <c r="D590" s="0" t="inlineStr">
         <is>
-          <t>4106.3500000000004</t>
+          <t>4106.35</t>
         </is>
       </c>
       <c r="E590" s="0" t="inlineStr">
@@ -18370,7 +18370,7 @@
       </c>
       <c r="D667" s="0" t="inlineStr">
         <is>
-          <t>4746.0500000000002</t>
+          <t>4746.05</t>
         </is>
       </c>
       <c r="E667" s="0" t="inlineStr">
